--- a/data/trans_media/PCS12_SP-Provincia-trans_media.xlsx
+++ b/data/trans_media/PCS12_SP-Provincia-trans_media.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,49; 53,41</t>
+          <t>51,39; 53,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,89; 53,01</t>
+          <t>50,95; 53,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50,04; 51,9</t>
+          <t>49,91; 51,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>50,03; 52,19</t>
+          <t>50,14; 52,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,3; 50,1</t>
+          <t>47,25; 50,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>47,86; 49,35</t>
+          <t>47,83; 49,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>51,1; 52,52</t>
+          <t>51,15; 52,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,61; 51,32</t>
+          <t>49,49; 51,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,15; 50,37</t>
+          <t>49,14; 50,36</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,78; 53,16</t>
+          <t>51,71; 53,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,05; 52,81</t>
+          <t>51,0; 52,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,95; 53,4</t>
+          <t>51,9; 53,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50,25; 52,02</t>
+          <t>50,18; 52,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,85; 50,53</t>
+          <t>48,84; 50,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,21; 50,2</t>
+          <t>48,29; 50,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,62; 51,47</t>
+          <t>49,66; 51,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,41; 49,99</t>
+          <t>48,47; 50,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,55; 51,65</t>
+          <t>50,52; 51,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49,89; 51,26</t>
+          <t>49,87; 51,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,03; 52,2</t>
+          <t>50,98; 52,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>49,59; 50,82</t>
+          <t>49,55; 50,78</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,53; 53,97</t>
+          <t>52,58; 53,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,78; 52,97</t>
+          <t>50,64; 52,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,47; 54,08</t>
+          <t>52,51; 54,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,96; 51,01</t>
+          <t>49,03; 51,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,71; 50,8</t>
+          <t>48,74; 50,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,97; 51,25</t>
+          <t>48,88; 51,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,81; 52,89</t>
+          <t>50,81; 52,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,21; 50,1</t>
+          <t>48,2; 50,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>50,87; 52,11</t>
+          <t>50,84; 52,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,26; 51,81</t>
+          <t>50,19; 51,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,93; 53,32</t>
+          <t>51,87; 53,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>48,88; 50,23</t>
+          <t>48,85; 50,25</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,45; 53,94</t>
+          <t>52,49; 53,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>50,99; 52,52</t>
+          <t>51,06; 52,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>49,97; 51,98</t>
+          <t>50,14; 52,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,49; 51,29</t>
+          <t>48,52; 51,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,07; 51,0</t>
+          <t>49,1; 51,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,31; 49,13</t>
+          <t>47,28; 49,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,68; 49,18</t>
+          <t>46,75; 49,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,0; 50,2</t>
+          <t>48,08; 50,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,97; 52,19</t>
+          <t>50,96; 52,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>49,43; 50,57</t>
+          <t>49,42; 50,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>48,68; 50,33</t>
+          <t>48,69; 50,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>48,63; 50,39</t>
+          <t>48,48; 50,27</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>52,38; 54,16</t>
+          <t>52,4; 54,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,31; 52,82</t>
+          <t>50,37; 52,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,17; 54,31</t>
+          <t>52,09; 54,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>52,03; 53,61</t>
+          <t>52,06; 53,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,59; 52,33</t>
+          <t>49,5; 52,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,29; 49,27</t>
+          <t>46,44; 49,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>50,03; 52,57</t>
+          <t>49,98; 52,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>50,17; 51,7</t>
+          <t>50,21; 51,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,31; 52,97</t>
+          <t>51,32; 52,97</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48,68; 50,78</t>
+          <t>48,83; 50,71</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>51,39; 53,1</t>
+          <t>51,46; 53,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,31; 52,41</t>
+          <t>51,36; 52,41</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>51,58; 53,31</t>
+          <t>51,68; 53,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>50,08; 52,27</t>
+          <t>49,98; 52,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>49,95; 52,42</t>
+          <t>49,97; 52,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>49,22; 50,97</t>
+          <t>49,06; 50,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,72; 50,16</t>
+          <t>47,71; 50,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,55; 51,0</t>
+          <t>48,45; 51,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47,94; 50,72</t>
+          <t>47,95; 50,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46,99; 49,03</t>
+          <t>47,16; 48,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>49,91; 51,5</t>
+          <t>50,0; 51,56</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>49,7; 51,41</t>
+          <t>49,56; 51,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>49,37; 51,27</t>
+          <t>49,43; 51,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>48,29; 49,65</t>
+          <t>48,4; 49,69</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>52,16; 53,3</t>
+          <t>52,15; 53,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>52,36; 53,59</t>
+          <t>52,42; 53,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>51,88; 53,18</t>
+          <t>51,92; 53,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>50,95; 52,43</t>
+          <t>51,03; 52,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,11; 51,48</t>
+          <t>50,05; 51,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,37; 50,88</t>
+          <t>49,25; 50,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>49,14; 50,87</t>
+          <t>49,12; 50,8</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>49,14; 51,24</t>
+          <t>49,13; 51,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,37; 52,24</t>
+          <t>51,27; 52,22</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>51,01; 52,02</t>
+          <t>51,01; 52,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>50,72; 51,79</t>
+          <t>50,7; 51,82</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>50,22; 51,45</t>
+          <t>50,21; 51,42</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>51,95; 53,17</t>
+          <t>52,03; 53,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>52,21; 53,35</t>
+          <t>52,16; 53,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>53,31; 54,19</t>
+          <t>53,22; 54,2</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>51,35; 52,75</t>
+          <t>51,3; 52,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>49,96; 51,36</t>
+          <t>49,96; 51,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>50,68; 51,87</t>
+          <t>50,73; 51,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>50,96; 52,24</t>
+          <t>50,95; 52,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>49,45; 50,72</t>
+          <t>49,46; 50,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>51,14; 52,06</t>
+          <t>51,13; 52,09</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>51,61; 52,42</t>
+          <t>51,58; 52,43</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>52,26; 53,1</t>
+          <t>52,28; 53,06</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>50,62; 51,5</t>
+          <t>50,69; 51,57</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>52,55; 53,05</t>
+          <t>52,55; 53,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>51,94; 52,58</t>
+          <t>51,96; 52,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>52,4; 52,97</t>
+          <t>52,43; 52,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>51,0; 51,59</t>
+          <t>50,99; 51,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>50,01; 50,66</t>
+          <t>50,03; 50,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>49,41; 50,1</t>
+          <t>49,4; 50,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>49,97; 50,76</t>
+          <t>50,04; 50,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>49,21; 49,97</t>
+          <t>49,22; 49,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>51,34; 51,77</t>
+          <t>51,34; 51,78</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>50,73; 51,2</t>
+          <t>50,74; 51,21</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>51,29; 51,78</t>
+          <t>51,28; 51,73</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>50,17; 50,63</t>
+          <t>50,16; 50,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/PCS12_SP-Provincia-trans_media.xlsx
+++ b/data/trans_media/PCS12_SP-Provincia-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,39; 53,37</t>
+          <t>51,5; 53,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,95; 53,07</t>
+          <t>50,91; 53,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>50,14; 52,27</t>
+          <t>49,87; 52,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,25; 50,14</t>
+          <t>47,25; 49,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>51,15; 52,54</t>
+          <t>51,12; 52,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,49; 51,26</t>
+          <t>49,49; 51,24</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,71; 53,07</t>
+          <t>51,81; 53,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,0; 52,84</t>
+          <t>51,15; 52,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,9; 53,38</t>
+          <t>51,93; 53,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>48,84; 50,6</t>
+          <t>48,97; 50,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,29; 50,16</t>
+          <t>48,26; 50,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,66; 51,6</t>
+          <t>49,58; 51,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,52; 51,66</t>
+          <t>50,55; 51,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49,87; 51,2</t>
+          <t>49,94; 51,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>50,98; 52,16</t>
+          <t>50,99; 52,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,58; 53,99</t>
+          <t>52,59; 53,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,64; 52,89</t>
+          <t>50,76; 52,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,51; 54,05</t>
+          <t>52,57; 54,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48,74; 50,77</t>
+          <t>48,76; 50,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,88; 51,12</t>
+          <t>49,04; 51,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,81; 52,98</t>
+          <t>50,54; 52,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>50,84; 52,15</t>
+          <t>50,81; 52,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,19; 51,82</t>
+          <t>50,25; 51,8</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,87; 53,28</t>
+          <t>51,9; 53,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,49; 53,92</t>
+          <t>52,48; 53,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,06; 52,51</t>
+          <t>51,04; 52,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,14; 52,04</t>
+          <t>50,01; 51,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,1; 51,1</t>
+          <t>49,15; 51,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,28; 49,16</t>
+          <t>47,25; 49,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,75; 49,22</t>
+          <t>46,65; 49,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,96; 52,27</t>
+          <t>51,03; 52,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>49,42; 50,64</t>
+          <t>49,4; 50,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>48,69; 50,28</t>
+          <t>48,64; 50,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>52,4; 54,16</t>
+          <t>52,43; 54,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,37; 52,71</t>
+          <t>50,23; 52,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,09; 54,27</t>
+          <t>52,18; 54,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,5; 52,22</t>
+          <t>49,65; 52,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,44; 49,48</t>
+          <t>46,24; 49,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,98; 52,48</t>
+          <t>49,94; 52,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,32; 52,97</t>
+          <t>51,37; 52,97</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48,83; 50,71</t>
+          <t>48,65; 50,75</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>51,46; 53,19</t>
+          <t>51,33; 53,04</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>51,68; 53,39</t>
+          <t>51,56; 53,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>49,98; 52,29</t>
+          <t>50,07; 52,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>49,97; 52,51</t>
+          <t>50,01; 52,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>47,71; 50,21</t>
+          <t>47,73; 50,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,45; 51,09</t>
+          <t>48,54; 50,97</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47,95; 50,75</t>
+          <t>47,9; 50,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>50,0; 51,56</t>
+          <t>50,02; 51,55</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>49,56; 51,3</t>
+          <t>49,61; 51,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>49,43; 51,34</t>
+          <t>49,27; 51,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>52,15; 53,26</t>
+          <t>52,18; 53,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>52,42; 53,64</t>
+          <t>52,35; 53,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>51,92; 53,17</t>
+          <t>51,8; 53,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,05; 51,44</t>
+          <t>50,15; 51,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>49,25; 50,85</t>
+          <t>49,29; 50,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>49,12; 50,8</t>
+          <t>49,21; 50,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>51,27; 52,22</t>
+          <t>51,32; 52,21</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>51,01; 52,03</t>
+          <t>51,01; 52,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>50,7; 51,82</t>
+          <t>50,68; 51,75</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>52,03; 53,18</t>
+          <t>52,05; 53,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>52,16; 53,29</t>
+          <t>52,25; 53,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>53,22; 54,2</t>
+          <t>53,27; 54,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>49,96; 51,35</t>
+          <t>49,95; 51,35</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>50,73; 51,83</t>
+          <t>50,62; 51,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>50,95; 52,23</t>
+          <t>51,0; 52,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>51,13; 52,09</t>
+          <t>51,15; 52,04</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>51,58; 52,43</t>
+          <t>51,57; 52,43</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>52,28; 53,06</t>
+          <t>52,29; 53,06</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>52,55; 53,06</t>
+          <t>52,54; 53,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>51,96; 52,56</t>
+          <t>51,92; 52,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>52,43; 52,98</t>
+          <t>52,43; 52,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>50,03; 50,67</t>
+          <t>50,02; 50,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>49,4; 50,11</t>
+          <t>49,38; 50,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>50,04; 50,78</t>
+          <t>50,0; 50,72</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>51,34; 51,78</t>
+          <t>51,35; 51,77</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>50,74; 51,21</t>
+          <t>50,73; 51,2</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>51,28; 51,73</t>
+          <t>51,25; 51,73</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
